--- a/1. Quotation/36. Hi-Tech Trading & Petroleum Technical Service Company/UNS 31803/Quotation 131119.xlsx
+++ b/1. Quotation/36. Hi-Tech Trading & Petroleum Technical Service Company/UNS 31803/Quotation 131119.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{667D7E42-66A9-46CC-9C3B-BD182F7E72CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Rolled Alloy" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -86,10 +85,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -181,23 +180,23 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -212,7 +211,7 @@
     <xf numFmtId="4" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -311,23 +310,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -363,23 +345,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -555,11 +520,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
